--- a/ClosedXML.Tests/Resource/Examples/Styles/UsingRichText.xlsx
+++ b/ClosedXML.Tests/Resource/Examples/Styles/UsingRichText.xlsx
@@ -555,7 +555,7 @@
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
-    <x:col min="1" max="2" width="37.001382" style="0" customWidth="1"/>
+    <x:col min="1" max="2" width="36.986297" style="0" customWidth="1"/>
   </x:cols>
   <x:sheetData>
     <x:row r="1" spans="1:2">
